--- a/tableau2.xlsx
+++ b/tableau2.xlsx
@@ -1,51 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24202"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D28855-90A4-4863-B27E-124E97DF5B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
   <si>
     <t>Sheet name</t>
   </si>
   <si>
     <t>filters</t>
-  </si>
-  <si>
-    <t>Goals by each team</t>
-  </si>
-  <si>
-    <t>Annual Goals Count</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>map</t>
   </si>
   <si>
     <t>Year (goals)</t>
@@ -69,25 +45,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -95,24 +414,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -161,7 +766,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -194,26 +799,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -246,23 +834,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,24 +975,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -431,62 +997,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA710821-7FED-40AA-9AD1-F7F8A9FACEC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -497,7 +1033,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -508,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -519,7 +1055,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -530,7 +1066,7 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -541,7 +1077,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -552,7 +1088,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -563,7 +1099,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -574,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -585,7 +1121,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -596,7 +1132,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -607,7 +1143,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -618,7 +1154,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -629,7 +1165,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -640,7 +1176,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -651,7 +1187,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -662,7 +1198,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -673,7 +1209,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -684,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -695,7 +1231,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -706,30 +1242,32 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC83770-7D4B-4425-9DE0-A0C6259BF1A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -894,5 +1432,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>